--- a/XLSX/error_stepcount_moderate.xlsx
+++ b/XLSX/error_stepcount_moderate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RungeKutta\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0177D4A7-5286-4191-8685-3467785FF471}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ACA085-73B3-45DD-8601-8389544B83B1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6915,7 +6915,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6928,12 +6928,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="nl-NL" sz="2900" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Error as a Function of Step Count for moderate Step Counts</a:t>
             </a:r>
-            <a:endParaRPr lang="nl-NL">
+            <a:endParaRPr lang="nl-NL" sz="2900" baseline="0">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -6952,7 +6952,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10952,7 +10952,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -10965,14 +10965,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
-                  <a:t>Step</a:t>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
+                  <a:t>Step Count</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" baseline="0"/>
-                  <a:t> Count</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-NL"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10989,7 +10984,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11027,7 +11022,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11075,7 +11070,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11088,7 +11083,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -11115,7 +11110,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11147,7 +11142,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11189,7 +11184,4350 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Error as a Function of Step Count for moderate Step Counts</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="2900" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RK4-double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Power function fit (RK4-double)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad1!$AI$3:$AI$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>1.9321888046859018E-9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.013779609416508E-10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.758994097283668E-11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9966980717067597E-12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1474224765029201E-12</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.1794825746874193E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9851504920801399E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.7611382814332198E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8558296091010519E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.141685942267714E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3788144731173994E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>5.5133234436172402E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.1667816971273197E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0363837512249801E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.3489858340014199E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7373509626817821E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.383289930277844E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.109295449571666E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9.2878888028518795E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>6.9483887455432399E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.4009329188894198E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5.0294803179138603E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.0664156755133397E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.4665527174745598E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.8993934542921E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.5528314937953E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.2900247988168002E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.0183457458557801E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.8521174126273899E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.7049097588014921E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1.4885834338699061E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>1.5898602506198499E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1.2439162555592101E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.5002552551893399E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1.477003803500708E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>1.3617822822412781E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1.245394268673356E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>1.10077172798694E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1.493728228988382E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1.198656762818492E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>1.2076956011555659E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>1.4424285510152101E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>1.310395605161906E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>1.374938122423072E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>1.2301235728661781E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>1.374907920385958E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>1.505532093314774E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>1.302207861024646E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>1.2751993559910381E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>1.4088165837525919E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>1.408724244102178E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>1.4421407719264739E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>1.344840326427196E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>1.466526224935716E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>1.396685633803892E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>1.563022450054182E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>1.360866411066068E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>1.598897423393062E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>1.330888480031974E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>1.515744279857336E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>1.6012351120384981E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>1.72782964727883E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>1.5043350139815439E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>1.7546818214056861E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>1.35254372939984E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>1.5460564555691081E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>1.627803515841846E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>1.620757192731128E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>1.508747869744818E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>1.454614876207626E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>1.460255512995692E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>1.460440826657748E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>1.5245630176520779E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>1.8660647423668582E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.395477348551748E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>1.2798686910455881E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.4613617226656099E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>1.4465093669959319E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>1.2461650092182661E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>1.4668979389375059E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>1.325531701894266E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>1.441900257331064E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>1.43573347274055E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>1.296809360815496E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>1.134186493293078E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>1.332505865633756E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>1.304263970219138E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>1.5915779118294441E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.338785847364082E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>1.2010295581561999E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.4481834118352959E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>1.0727734158230881E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.2353257208162879E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.2138744478302739E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>1.19236945727291E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>1.308089463555798E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1.1946674176195541E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>1.3183914367730261E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1.2970749363541761E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>1.37178811418923E-15</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad1!$AI$3:$AI$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>1.9321888046859018E-9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.013779609416508E-10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.758994097283668E-11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9966980717067597E-12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1474224765029201E-12</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.1794825746874193E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9851504920801399E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.7611382814332198E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8558296091010519E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.141685942267714E-13</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3788144731173994E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>5.5133234436172402E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.1667816971273197E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0363837512249801E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.3489858340014199E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7373509626817821E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.383289930277844E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.109295449571666E-14</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9.2878888028518795E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>6.9483887455432399E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.4009329188894198E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5.0294803179138603E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.0664156755133397E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.4665527174745598E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.8993934542921E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.5528314937953E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.2900247988168002E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.0183457458557801E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1.8521174126273899E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.7049097588014921E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1.4885834338699061E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>1.5898602506198499E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1.2439162555592101E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.5002552551893399E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1.477003803500708E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>1.3617822822412781E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1.245394268673356E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>1.10077172798694E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1.493728228988382E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1.198656762818492E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>1.2076956011555659E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>1.4424285510152101E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>1.310395605161906E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>1.374938122423072E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>1.2301235728661781E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>1.374907920385958E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>1.505532093314774E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>1.302207861024646E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>1.2751993559910381E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>1.4088165837525919E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>1.408724244102178E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>1.4421407719264739E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>1.344840326427196E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>1.466526224935716E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>1.396685633803892E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>1.563022450054182E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>1.360866411066068E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>1.598897423393062E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>1.330888480031974E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>1.515744279857336E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>1.6012351120384981E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>1.72782964727883E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>1.5043350139815439E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>1.7546818214056861E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>1.35254372939984E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>1.5460564555691081E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>1.627803515841846E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>1.620757192731128E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>1.508747869744818E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>1.454614876207626E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>1.460255512995692E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>1.460440826657748E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>1.5245630176520779E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>1.8660647423668582E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1.395477348551748E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>1.2798686910455881E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1.4613617226656099E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>1.4465093669959319E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>1.2461650092182661E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>1.4668979389375059E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>1.325531701894266E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>1.441900257331064E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>1.43573347274055E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>1.296809360815496E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>1.134186493293078E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>1.332505865633756E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>1.304263970219138E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>1.5915779118294441E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.338785847364082E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>1.2010295581561999E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.4481834118352959E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>1.0727734158230881E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.2353257208162879E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.2138744478302739E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>1.19236945727291E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>1.308089463555798E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1.1946674176195541E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>1.3183914367730261E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1.2970749363541761E-15</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>1.37178811418923E-15</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$AF$3:$AF$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$AG$3:$AG$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4.8590551999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6351432000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9495504000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5169178999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1290322E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9071969000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5601442E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1123931999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6669778999999998E-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7028422000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5213898000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7753909999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2845592E-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5455944E-12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2416693999999998E-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5617405999999996E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3557224000000001E-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4705776000000002E-12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7924554999999998E-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2733216E-12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8695782E-12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5504456E-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2980136000000001E-12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0898544E-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2596952999999991E-13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9018868999999996E-13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8100842999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8883660999999998E-13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1216456E-13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4624820000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9041998999999998E-13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4472645999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0345895999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6807064000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4145609999999998E-13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1572198000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9217110000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7300596999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5539256E-13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4153655E-13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2669800000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1599246E-13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.04750096E-13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.5451304000000005E-14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8079951999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.0143177999999996E-14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3471209000000005E-14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6752287000000004E-14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.1852391000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.8853416E-14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.2113307000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9468914000000003E-14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.4922974E-14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.2508101000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.0156008000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.6758352999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6061585999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2113503000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0372515000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7956423199999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6755970800000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.54447341E-14</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.23961156E-14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.12481812E-14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0143059800000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.91439136E-14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.62704533E-14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7268236500000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5894771300000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6031211399999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5274785140000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.41352247E-14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.31681524E-14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4752685E-14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.140375149E-14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.01382547E-14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1681435299999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.1191558799999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.5368263999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.100483739E-14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.00651078E-14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.7799304000000003E-15</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.9286222300000004E-15</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.5179776499999997E-15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.41134394E-15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.3912054800000006E-15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.3780061099999994E-15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.039178269E-14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.3978357900000008E-15</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9544374500000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.8769791600000008E-15</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.6527547500000003E-15</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1104771600000005E-15</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.0070409300000003E-15</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.7120664000000002E-15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.6362476000000008E-15</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.7449127599999994E-15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.31712323E-15</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.7822685500000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9801178899999997E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4646-4D4A-A761-B1D1056C4C2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RK4-float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Power function fit (RK4-float)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad1!$AD$3:$AD$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>8.6756154810303205E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.9548779017551594E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0801850106691141E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.15085851874245E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3160957870731439E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.360960616078182E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7596923236509399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8139787141896021E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.839518381710916E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.1306926724643201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.19160093412212E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.1647855712341201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5742911135199598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.3435521214669601E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.5743254876854002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.7784125244103401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.7835542626659599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.10378745743038E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.7998827427963998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.8669787491738201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.9932830935776001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.2289954829391801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.5214745905416599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.0495310582287602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2507843138551399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.7293354523382E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.9229539646806201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3.7204669940937398E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.3178808944605002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.8193224756443198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.7030721116639801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.9836612652013002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.0271310475997402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>3.6887807202979798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.9949471963039199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>3.8757613311617399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>3.8943166882815002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>3.4859321726574001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.82059372351056E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.5832043920850002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.9456274644102201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>4.18045733644472E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>4.0618244840620602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>4.9498655803370405E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.2461141394949998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4.21216567329926E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.96258041493338E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>4.8729834433718402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>4.0176103335235603E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>5.1421271862609198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.2681449310788599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>4.2005478586002003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>4.0189638868943002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>4.4196414664677803E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4.3171158199273199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>3.8775449795814998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3.9740195872272198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>4.3660279208043599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>5.2541923128567602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>4.9820703968610999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>5.1801193565703398E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>4.6575667772021202E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>5.0631992856908396E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>8.2468467443751805E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>4.8531063919173404E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>6.0218831573928601E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>4.8411289098598003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>5.4968239185696396E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>5.6029230668908798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>4.7089363701431201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>5.3121487320310796E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>5.6723336783380204E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>4.9941356955838003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>8.77867497639598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>5.70752578669906E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>5.7769729202302798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>5.7889358864670797E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>5.2974848654407796E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>4.2065904497231598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>6.6214599564474598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>1.021702216930564E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>4.7274819620665001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>4.4523160697583402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>6.96165985155326E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>5.5223888408040005E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>7.2790938942288005E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.3074561335786203E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>4.5394983324211599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.4327571455397802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>5.5577742254937602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>6.6280914909655802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>6.1621568249061403E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>6.0353525227379599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>5.0912102700893595E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>5.81672050011016E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>4.8466762468785001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>7.0847083139071199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.7544322673010802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>6.27012126617812E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>6.1089386931230003E-7</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad1!$AD$3:$AD$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>8.6756154810303205E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.9548779017551594E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0801850106691141E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.15085851874245E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3160957870731439E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.360960616078182E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7596923236509399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8139787141896021E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.839518381710916E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.1306926724643201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.19160093412212E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.1647855712341201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.5742911135199598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.3435521214669601E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.5743254876854002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.7784125244103401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.7835542626659599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.10378745743038E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.7998827427963998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.8669787491738201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.9932830935776001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.2289954829391801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.5214745905416599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.0495310582287602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2507843138551399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2.7293354523382E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2.9229539646806201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3.7204669940937398E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.3178808944605002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.8193224756443198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.7030721116639801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.9836612652013002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.0271310475997402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>3.6887807202979798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.9949471963039199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>3.8757613311617399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>3.8943166882815002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>3.4859321726574001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.82059372351056E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.5832043920850002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.9456274644102201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>4.18045733644472E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>4.0618244840620602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>4.9498655803370405E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.2461141394949998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4.21216567329926E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.96258041493338E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>4.8729834433718402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>4.0176103335235603E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>5.1421271862609198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.2681449310788599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>4.2005478586002003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>4.0189638868943002E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>4.4196414664677803E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4.3171158199273199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>3.8775449795814998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3.9740195872272198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>4.3660279208043599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>5.2541923128567602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>4.9820703968610999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>5.1801193565703398E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>4.6575667772021202E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>5.0631992856908396E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>8.2468467443751805E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>4.8531063919173404E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>6.0218831573928601E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>4.8411289098598003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>5.4968239185696396E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>5.6029230668908798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>4.7089363701431201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>5.3121487320310796E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>5.6723336783380204E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>4.9941356955838003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>8.77867497639598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>5.70752578669906E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>5.7769729202302798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>5.7889358864670797E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>5.2974848654407796E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>4.2065904497231598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>6.6214599564474598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>1.021702216930564E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>4.7274819620665001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>4.4523160697583402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>6.96165985155326E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>5.5223888408040005E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>7.2790938942288005E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.3074561335786203E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>4.5394983324211599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.4327571455397802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>5.5577742254937602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>6.6280914909655802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>6.1621568249061403E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>6.0353525227379599E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>5.0912102700893595E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>5.81672050011016E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>4.8466762468785001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>7.0847083139071199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.7544322673010802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>6.27012126617812E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>6.1089386931230003E-7</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$AA$3:$AA$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$AB$3:$AB$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>6.3215748700000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5464303299999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2973969699999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9808454699999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6503558599999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0563963290000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.170901049E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24488846E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.207279538E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6770327899999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.367075049E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.49209711E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.57576392E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6197996499999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8331493050000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9092490899999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9828281229999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1073922940000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1832080579999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0081441989999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1282369100000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2676332699999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3687210100000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.24118988E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4050948100000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1522451E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2569252300000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.77909007E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4115116699999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3706561690000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5236075999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5733904599999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6433762589999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4671846699999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5469230559999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3753048200000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.66049089E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5945577999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6139232E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7153105099999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9493642500000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7634420600000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9312969400000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4401556900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9026707409999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.9852566500000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.05058335E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.9152130199999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.9074377800000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3587499999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0833664099999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.893120344E-6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9623672500000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8904583400000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.021794508E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9093526000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8812200819999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.05752167E-6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.4304722389999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.21432577E-6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7389751900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.2497846899999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.4215519200000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8319178299999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2713283200000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6889832899999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3052638499999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.4337435200000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4235015880000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9346600399999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.2539149899999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.9609311790000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.51126634E-6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5489545899999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1912061899999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0719501900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.9084587700000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4785226099999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.21140506E-6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.3348584680000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0126625900000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3843764899999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.40883366E-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.2654887000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0881527E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4454761799999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.7439277400000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4417460200000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.2630628800000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5791643099999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.3890475700000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.4498168400000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2806675099999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.3968982819999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.7855662299999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.9529152900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4866786800000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.1486546000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.7226625499999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.1285963199999999E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4646-4D4A-A761-B1D1056C4C2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forward Euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Power function fit (Forward Euler)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad1!$D$3:$D$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>2.2597492307463201E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.0461945280320401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.3302536844493997E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.8320832400060604E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.4708371748027395E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.7505463091779001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.42985780088786E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.1145102525726804E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.0214489515792604E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.9826870332218203E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.50685825420268E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.3170025378147798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.4142578146855802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.2188563456611998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.8872938815259601E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6.0274715702052396E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>6.6311780486201405E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6.4066230448794605E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.4607966868098398E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.8726888144520195E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.7701317468021995E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5.5383209596327197E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.3930915147982597E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.6342844542019201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>5.2174595069245605E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.8322923814911598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>5.6213241379896598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>5.5593955645954001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5.2617571719411596E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.8727486919689003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4.5763169870807001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>4.3118029254242399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.6340700230309202E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4.1329698126947197E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>4.1502958186786402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4.2159508116114602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>4.3224806375019001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>3.8343738268327001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.7356097370057402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.9630142150920999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.6833289033767399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3.5897045414803197E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.5342705044699999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.6199657747078997E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>3.6242840187405999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.6401423919986998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.2191178067204801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.26697612054192E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>3.2645594757937201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>3.3967043826250798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>3.1553963131453998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3.1539893042645802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2.8571567706772E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2.9597099649547E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>3.0311048762432198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2.7518267783239402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2.8724919259446198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2.8981722489640801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2.6757652806465198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2.7964176296840199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2.80515689546898E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2.7619179973755802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2.6064724434195001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2.5175009073953798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.2861806113693E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2.4789054845679E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2.25815223906512E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2.5927030468686998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2.4968524450497602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2.3054250908219999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2.3248256492154401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2.5111577943149799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2.4347620630003999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2.6187928115784999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2.4331733857524799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2.25451162377046E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2.2614183394104401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2.30874027204982E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2.1995938503876799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2.0221312477766999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2.1238251946916401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2.04851762476438E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2.02984478223872E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>1.950514158913564E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>1.99808257863988E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>1.9962981085573001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>1.817243485377488E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>1.8920876108481459E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.9646853969619679E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>1.8737974538383261E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.9539001624208261E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>1.980364392218506E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.8696016683206799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.7606018368533619E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>1.7894327912599879E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>1.7742775445435861E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1.9124139881560101E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>1.7895514698530099E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1.7554422106522779E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>1.820850351627726E-7</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad1!$D$3:$D$102</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="100"/>
+                  <c:pt idx="0">
+                    <c:v>2.2597492307463201E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.0461945280320401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.3302536844493997E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.8320832400060604E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.4708371748027395E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.7505463091779001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.42985780088786E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.1145102525726804E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.0214489515792604E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.9826870332218203E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.50685825420268E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.3170025378147798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.4142578146855802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.2188563456611998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.8872938815259601E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6.0274715702052396E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>6.6311780486201405E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6.4066230448794605E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6.4607966868098398E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.8726888144520195E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>5.7701317468021995E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5.5383209596327197E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5.3930915147982597E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>5.6342844542019201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>5.2174595069245605E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.8322923814911598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>5.6213241379896598E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>5.5593955645954001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5.2617571719411596E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.8727486919689003E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4.5763169870807001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>4.3118029254242399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4.6340700230309202E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4.1329698126947197E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>4.1502958186786402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4.2159508116114602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>4.3224806375019001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>3.8343738268327001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.7356097370057402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.9630142150920999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.6833289033767399E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3.5897045414803197E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.5342705044699999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.6199657747078997E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>3.6242840187405999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.6401423919986998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.2191178067204801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.26697612054192E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>3.2645594757937201E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>3.3967043826250798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>3.1553963131453998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3.1539893042645802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2.8571567706772E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2.9597099649547E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>3.0311048762432198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2.7518267783239402E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2.8724919259446198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2.8981722489640801E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2.6757652806465198E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2.7964176296840199E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2.80515689546898E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2.7619179973755802E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2.6064724434195001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2.5175009073953798E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.2861806113693E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2.4789054845679E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2.25815223906512E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2.5927030468686998E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2.4968524450497602E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2.3054250908219999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2.3248256492154401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2.5111577943149799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2.4347620630003999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2.6187928115784999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2.4331733857524799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2.25451162377046E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2.2614183394104401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2.30874027204982E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2.1995938503876799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2.0221312477766999E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2.1238251946916401E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2.04851762476438E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2.02984478223872E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>1.950514158913564E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>1.99808257863988E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>1.9962981085573001E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>1.817243485377488E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>1.8920876108481459E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.9646853969619679E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>1.8737974538383261E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.9539001624208261E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>1.980364392218506E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.8696016683206799E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1.7606018368533619E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>1.7894327912599879E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>1.7742775445435861E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1.9124139881560101E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>1.7895514698530099E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1.7554422106522779E-7</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>1.820850351627726E-7</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$A$3:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.7967679999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0207346E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1446409E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7938599000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1652866E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.2135156999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>6.1365540000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>4.9271711000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>3.9448403000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>3.2476978000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.7784807000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>2.4217107000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>2.0619690000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>1.9020844999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>1.6035149999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>1.4351504000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>1.35557828E-5</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>1.25403578E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>1.19234843E-5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>1.0144487E-5</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>1.01680451E-5</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>9.6851669999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>9.0662489000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>8.0096990999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>8.1192707999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>7.2384096000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>7.0670815999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>7.0115606000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>6.3585018999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>6.2852583999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>6.5589426000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>5.8279170000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>5.7031287999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>5.4545703999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>5.1640950999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>4.7282790000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>4.7911885000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>4.5243078000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>4.4190001000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>4.6248147999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>4.4344143E-6</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>3.7462937E-6</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>4.1486655000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>3.9685648999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00E+00">
+                  <c:v>3.8577869000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00E+00">
+                  <c:v>3.7524883999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>3.7553941999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>3.7274237000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00E+00">
+                  <c:v>3.5533122000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>3.2014435000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>3.0705957999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>2.9369986999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>3.3773055699999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>3.0471400800000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00E+00">
+                  <c:v>2.9278475599999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>2.7075452900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00E+00">
+                  <c:v>2.9114659499999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00E+00">
+                  <c:v>2.8092681199999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>2.9041274899999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>2.7946006799999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>2.7061460699999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>2.6743801799999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>2.5305867400000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>2.6602041799999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>2.4950623099999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>2.7556773900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>2.4582561699999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>2.4950561799999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>2.5054443299999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>2.2093370000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>2.2601736400000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>2.2833969399999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00E+00">
+                  <c:v>2.2087426599999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>2.2279339799999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>2.0391420400000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>2.0997437200000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>2.2200160100000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>1.9265796900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00E+00">
+                  <c:v>2.09489006E-6</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00E+00">
+                  <c:v>1.8544761500000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00E+00">
+                  <c:v>1.9966813899999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00E+00">
+                  <c:v>1.9184442600000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00E+00">
+                  <c:v>1.83157801E-6</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00E+00">
+                  <c:v>1.8203592900000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00E+00">
+                  <c:v>1.99137365E-6</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00E+00">
+                  <c:v>1.9201014799999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00E+00">
+                  <c:v>1.9175715799999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.00E+00">
+                  <c:v>1.90949665E-6</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.00E+00">
+                  <c:v>1.88459137E-6</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00E+00">
+                  <c:v>1.7652056700000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.00E+00">
+                  <c:v>1.88389059E-6</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.00E+00">
+                  <c:v>1.78751388E-6</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0.00E+00">
+                  <c:v>1.7639169799999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00E+00">
+                  <c:v>1.7375155200000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.00E+00">
+                  <c:v>1.69531627E-6</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0.00E+00">
+                  <c:v>1.67898829E-6</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00E+00">
+                  <c:v>1.69485211E-6</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0.00E+00">
+                  <c:v>1.5873051599999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.00E+00">
+                  <c:v>1.6541971E-6</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0.00E+00">
+                  <c:v>1.54278679E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4646-4D4A-A761-B1D1056C4C2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="884248000"/>
+        <c:axId val="884250080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="884248000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
+                  <a:t>Step Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884250080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="884250080"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1800" baseline="0"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.218117350746945E-3"/>
+              <c:y val="0.47696298445540558"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884248000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11323,6 +15661,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12884,6 +17262,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12996,6 +17877,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>297142</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE1D4C0-1424-4085-A2D0-D414619D02E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14758,8 +19677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S92" sqref="S92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC114" sqref="AC114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
